--- a/mobi_client/mobi_client/mobi_config/has_limit_state_excel/模型技能表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/has_limit_state_excel/模型技能表.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOBI\mobi_client\mobi_config\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="ModelSkill" sheetId="1" r:id="rId1"/>
     <sheet name="DyeParam|染色参数表" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -20,13 +25,14 @@
     <author>ADMIN</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ADMIN:</t>
@@ -35,6 +41,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -47,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="334">
   <si>
     <t>模板id</t>
   </si>
@@ -156,6 +163,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -166,6 +174,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -176,6 +185,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -186,6 +196,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -196,6 +207,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -206,6 +218,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -216,6 +229,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -595,9 +609,6 @@
     <t>12201|12202|12203|12204</t>
   </si>
   <si>
-    <t>爆发刺客</t>
-  </si>
-  <si>
     <t>12301|12302|12303|12304</t>
   </si>
   <si>
@@ -617,9 +628,6 @@
   </si>
   <si>
     <t>char_wudeng</t>
-  </si>
-  <si>
-    <t>反伤肉盾</t>
   </si>
   <si>
     <t>12601|12602|12603|12604</t>
@@ -633,6 +641,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -643,6 +652,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -653,132 +663,433 @@
     <t>吞蚀莉马苏</t>
   </si>
   <si>
+    <t>char_tunshilimasu</t>
+  </si>
+  <si>
+    <t>怪物BOSS-移动充电站</t>
+  </si>
+  <si>
+    <t>10101|10102|10103|10104|10106</t>
+  </si>
+  <si>
+    <t>怪物BOSS-Drop the beat</t>
+  </si>
+  <si>
+    <t>10201|10202|10203|10204|110203</t>
+  </si>
+  <si>
+    <t>怪物BOSS-提线木偶</t>
+  </si>
+  <si>
+    <t>10301|10302|10303|10304</t>
+  </si>
+  <si>
+    <t>怪物BOSS-藤江物流</t>
+  </si>
+  <si>
+    <t>10401|10402|10403|10404</t>
+  </si>
+  <si>
+    <t>10501|10502|10503|208502</t>
+  </si>
+  <si>
+    <t>10601|10602|10603|10604</t>
+  </si>
+  <si>
+    <t>主线第三章-U盘</t>
+  </si>
+  <si>
+    <t>char_upanEX</t>
+  </si>
+  <si>
+    <t>怪物BOSS-黄泉乐队</t>
+  </si>
+  <si>
+    <t>10901|10902|10903|10904</t>
+  </si>
+  <si>
+    <t>怪物BOSS-电视娘</t>
+  </si>
+  <si>
+    <t>11001|11002|11003|11004</t>
+  </si>
+  <si>
+    <t>怪物BOSS-僵尸小童</t>
+  </si>
+  <si>
+    <t>11101|11102|11103|11104</t>
+  </si>
+  <si>
+    <t>怪物BOSS-气球商贩</t>
+  </si>
+  <si>
+    <t>11201|11202|11203|11204</t>
+  </si>
+  <si>
+    <t>怪物BOSS-病毒娘</t>
+  </si>
+  <si>
+    <t>11501|11502|11503|11504</t>
+  </si>
+  <si>
+    <t>11601|11602|11603|11604</t>
+  </si>
+  <si>
+    <t>怪物boss-社畜</t>
+  </si>
+  <si>
+    <t>11801|11802|11803|11804</t>
+  </si>
+  <si>
+    <t>怪物BOSS-早茶少女</t>
+  </si>
+  <si>
+    <t>11901|11902|11903|11904</t>
+  </si>
+  <si>
+    <t>12101|12102|12103|12104</t>
+  </si>
+  <si>
+    <t>怪物BOSS-电磁装置</t>
+  </si>
+  <si>
+    <t>char_diancizhuangzhi</t>
+  </si>
+  <si>
+    <t>序章-病床</t>
+  </si>
+  <si>
+    <t>char_bingchuang</t>
+  </si>
+  <si>
+    <t>古彩戏法师1</t>
+  </si>
+  <si>
+    <t>古彩戏法师2</t>
+  </si>
+  <si>
+    <t>古彩戏法师3</t>
+  </si>
+  <si>
+    <t>古彩戏法师4</t>
+  </si>
+  <si>
+    <t>309101|309103</t>
+  </si>
+  <si>
+    <t>古彩戏法师5</t>
+  </si>
+  <si>
+    <t>兔子先生</t>
+  </si>
+  <si>
+    <t>310101|310102|310103|310104|310105</t>
+  </si>
+  <si>
+    <t>char_tuzixiansheng</t>
+  </si>
+  <si>
+    <t>红茶女王</t>
+  </si>
+  <si>
+    <t>310201|310203</t>
+  </si>
+  <si>
+    <t>char_hongchanvwang</t>
+  </si>
+  <si>
+    <t>0|mon_3102_skill01</t>
+  </si>
+  <si>
+    <t>扑克士兵</t>
+  </si>
+  <si>
+    <t>310301|310302|310303</t>
+  </si>
+  <si>
+    <t>char_pukeshibing</t>
+  </si>
+  <si>
+    <t>强化扑克士兵</t>
+  </si>
+  <si>
+    <t>310401|310402</t>
+  </si>
+  <si>
+    <t>鸽子女士</t>
+  </si>
+  <si>
+    <t>310501|310502|310503</t>
+  </si>
+  <si>
+    <t>char_gezinvshi</t>
+  </si>
+  <si>
+    <t>强化鸽子女士</t>
+  </si>
+  <si>
+    <t>310601|310602</t>
+  </si>
+  <si>
+    <t>杯子</t>
+  </si>
+  <si>
+    <t>char_moshumaozi</t>
+  </si>
+  <si>
+    <t>0|mon_3107_dead</t>
+  </si>
+  <si>
+    <t>异质物研究员1</t>
+  </si>
+  <si>
+    <t>异质物研究员2</t>
+  </si>
+  <si>
+    <t>异质物研究员3</t>
+  </si>
+  <si>
+    <t>异质物研究员4</t>
+  </si>
+  <si>
+    <t>异质物研究员5</t>
+  </si>
+  <si>
+    <t>电磁装置</t>
+  </si>
+  <si>
+    <t>试管怪人</t>
+  </si>
+  <si>
+    <t>char_yaojiguairen</t>
+  </si>
+  <si>
+    <t>食人花</t>
+  </si>
+  <si>
+    <t>char_shirenhua</t>
+  </si>
+  <si>
+    <t>融合BOSS</t>
+  </si>
+  <si>
+    <t>320401|320402</t>
+  </si>
+  <si>
+    <t>char_rongheguai</t>
+  </si>
+  <si>
+    <t>机械射手</t>
+  </si>
+  <si>
+    <t>298101|298102</t>
+  </si>
+  <si>
+    <t>char_wuliansheshou</t>
+  </si>
+  <si>
+    <t>机械战士</t>
+  </si>
+  <si>
+    <t>298201|298202</t>
+  </si>
+  <si>
+    <t>char_jixiezhanshi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>机械肉盾</t>
+  </si>
+  <si>
+    <t>298301|298302</t>
+  </si>
+  <si>
+    <t>char_wulianroudun</t>
+  </si>
+  <si>
+    <t>298401|298402</t>
+  </si>
+  <si>
+    <t>char_wuliannvhushi</t>
+  </si>
+  <si>
+    <t>298501|298502</t>
+  </si>
+  <si>
+    <t>char_wulianquan</t>
+  </si>
+  <si>
+    <t>无脸射手</t>
+  </si>
+  <si>
+    <t>299101|299102</t>
+  </si>
+  <si>
+    <t>无脸战士</t>
+  </si>
+  <si>
+    <t>299201|299202</t>
+  </si>
+  <si>
+    <t>char_wulianzhanshi</t>
+  </si>
+  <si>
+    <t>无脸肉盾</t>
+  </si>
+  <si>
+    <t>299301|299302</t>
+  </si>
+  <si>
+    <t>无脸女护士</t>
+  </si>
+  <si>
+    <t>299401|299402</t>
+  </si>
+  <si>
+    <t>无脸犬</t>
+  </si>
+  <si>
+    <t>299501|299502</t>
+  </si>
+  <si>
+    <t>电视娘分身</t>
+  </si>
+  <si>
+    <t>199101|199102</t>
+  </si>
+  <si>
+    <t>吃豆人气球</t>
+  </si>
+  <si>
+    <t>199201|199202</t>
+  </si>
+  <si>
+    <t>char_chidourenqiqiu</t>
+  </si>
+  <si>
+    <t>STS科研人员</t>
+  </si>
+  <si>
+    <t>120601|120602|120603</t>
+  </si>
+  <si>
+    <t>char_STSkeyanrenyuan</t>
+  </si>
+  <si>
+    <t>STS安保人员</t>
+  </si>
+  <si>
+    <t>120701|120702</t>
+  </si>
+  <si>
+    <t>char_STSanbaorenyuan</t>
+  </si>
+  <si>
+    <t>音姬</t>
+  </si>
+  <si>
+    <t>char_123</t>
+  </si>
+  <si>
+    <t>盒中少女</t>
+  </si>
+  <si>
+    <t>400201|400202</t>
+  </si>
+  <si>
+    <t>char_114</t>
+  </si>
+  <si>
+    <t>幻臂</t>
+  </si>
+  <si>
+    <t>400301|400302</t>
+  </si>
+  <si>
+    <t>char_104</t>
+  </si>
+  <si>
+    <t>幻臂变身</t>
+  </si>
+  <si>
+    <t>char_104ex</t>
+  </si>
+  <si>
+    <t>植物少女</t>
+  </si>
+  <si>
+    <t>91401|91402</t>
+  </si>
+  <si>
+    <t>char_112</t>
+  </si>
+  <si>
+    <t>早餐精灵</t>
+  </si>
+  <si>
+    <t>char_122</t>
+  </si>
+  <si>
+    <t>偏色参数</t>
+  </si>
+  <si>
+    <t>dyeParam</t>
+  </si>
+  <si>
+    <t>无变化</t>
+  </si>
+  <si>
+    <t>0.82|0.16|0.62|1</t>
+  </si>
+  <si>
+    <t>紫色</t>
+  </si>
+  <si>
+    <t>红色</t>
+  </si>
+  <si>
+    <t>绿色</t>
+  </si>
+  <si>
+    <t>黄色</t>
+  </si>
+  <si>
+    <t>蓝色</t>
+  </si>
+  <si>
+    <t>机械刺客</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械治疗</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_jixiecike</t>
+  </si>
+  <si>
+    <t>char_jixiesheshou</t>
+  </si>
+  <si>
+    <t>无脸射手boss</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>无脸战士boss</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>无脸肉盾boss</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>无脸犬boss</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2802|12803|12804</t>
-    </r>
-  </si>
-  <si>
-    <t>char_tunshilimasu</t>
-  </si>
-  <si>
-    <t>怪物BOSS-移动充电站</t>
-  </si>
-  <si>
-    <t>10101|10102|10103|10104|10106</t>
-  </si>
-  <si>
-    <t>怪物BOSS-Drop the beat</t>
-  </si>
-  <si>
-    <t>10201|10202|10203|10204|110203</t>
-  </si>
-  <si>
-    <t>怪物BOSS-提线木偶</t>
-  </si>
-  <si>
-    <t>10301|10302|10303|10304</t>
-  </si>
-  <si>
-    <t>怪物BOSS-藤江物流</t>
-  </si>
-  <si>
-    <t>10401|10402|10403|10404</t>
-  </si>
-  <si>
-    <t>怪物BOSS-路障</t>
-  </si>
-  <si>
-    <t>10501|10502|10503|208502</t>
-  </si>
-  <si>
-    <t>10601|10602|10603|10604</t>
-  </si>
-  <si>
-    <t>主线第三章-U盘</t>
-  </si>
-  <si>
-    <t>char_upanEX</t>
-  </si>
-  <si>
-    <t>怪物BOSS-黄泉乐队</t>
-  </si>
-  <si>
-    <t>10901|10902|10903|10904</t>
-  </si>
-  <si>
-    <t>怪物BOSS-电视娘</t>
-  </si>
-  <si>
-    <t>11001|11002|11003|11004</t>
-  </si>
-  <si>
-    <t>怪物BOSS-僵尸小童</t>
-  </si>
-  <si>
-    <t>11101|11102|11103|11104</t>
-  </si>
-  <si>
-    <t>怪物BOSS-气球商贩</t>
-  </si>
-  <si>
-    <t>11201|11202|11203|11204</t>
-  </si>
-  <si>
-    <t>怪物BOSS-病毒娘</t>
-  </si>
-  <si>
-    <t>11501|11502|11503|11504</t>
-  </si>
-  <si>
-    <t>怪物BOSS-雷达娘</t>
-  </si>
-  <si>
-    <t>11601|11602|11603|11604</t>
-  </si>
-  <si>
-    <t>怪物boss-社畜</t>
-  </si>
-  <si>
-    <t>11801|11802|11803|11804</t>
-  </si>
-  <si>
-    <t>怪物BOSS-早茶少女</t>
-  </si>
-  <si>
-    <t>11901|11902|11903|11904</t>
-  </si>
-  <si>
-    <t>怪物BOSS-细胞娘</t>
-  </si>
-  <si>
-    <t>12101|12102|12103|12104</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>怪物B</t>
     </r>
     <r>
@@ -786,6 +1097,42 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OSS-拼图娘</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>11301|11302|11303|11304</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>12701|12702|12703|12704</t>
+  </si>
+  <si>
+    <t>12802|12803|12804</t>
+  </si>
+  <si>
+    <t>怪物BOSS-单体强化辅助</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物BOSS-吞蚀莉马苏</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>怪物B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -796,339 +1143,88 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>一善的百面</t>
     </r>
-  </si>
-  <si>
-    <t>怪物BOSS-电磁装置</t>
-  </si>
-  <si>
-    <t>char_diancizhuangzhi</t>
-  </si>
-  <si>
-    <t>序章-病床</t>
-  </si>
-  <si>
-    <t>char_bingchuang</t>
-  </si>
-  <si>
-    <t>古彩戏法师1</t>
-  </si>
-  <si>
-    <t>古彩戏法师2</t>
-  </si>
-  <si>
-    <t>古彩戏法师3</t>
-  </si>
-  <si>
-    <t>古彩戏法师4</t>
-  </si>
-  <si>
-    <t>309101|309103</t>
-  </si>
-  <si>
-    <t>古彩戏法师5</t>
-  </si>
-  <si>
-    <t>兔子先生</t>
-  </si>
-  <si>
-    <t>310101|310102|310103|310104|310105</t>
-  </si>
-  <si>
-    <t>char_tuzixiansheng</t>
-  </si>
-  <si>
-    <t>红茶女王</t>
-  </si>
-  <si>
-    <t>310201|310203</t>
-  </si>
-  <si>
-    <t>char_hongchanvwang</t>
-  </si>
-  <si>
-    <t>0|mon_3102_skill01</t>
-  </si>
-  <si>
-    <t>扑克士兵</t>
-  </si>
-  <si>
-    <t>310301|310302|310303</t>
-  </si>
-  <si>
-    <t>char_pukeshibing</t>
-  </si>
-  <si>
-    <t>强化扑克士兵</t>
-  </si>
-  <si>
-    <t>310401|310402</t>
-  </si>
-  <si>
-    <t>鸽子女士</t>
-  </si>
-  <si>
-    <t>310501|310502|310503</t>
-  </si>
-  <si>
-    <t>char_gezinvshi</t>
-  </si>
-  <si>
-    <t>强化鸽子女士</t>
-  </si>
-  <si>
-    <t>310601|310602</t>
-  </si>
-  <si>
-    <t>杯子</t>
-  </si>
-  <si>
-    <t>char_moshumaozi</t>
-  </si>
-  <si>
-    <t>0|mon_3107_dead</t>
-  </si>
-  <si>
-    <t>异质物研究员1</t>
-  </si>
-  <si>
-    <t>异质物研究员2</t>
-  </si>
-  <si>
-    <t>异质物研究员3</t>
-  </si>
-  <si>
-    <t>异质物研究员4</t>
-  </si>
-  <si>
-    <t>异质物研究员5</t>
-  </si>
-  <si>
-    <t>电磁装置</t>
-  </si>
-  <si>
-    <t>试管怪人</t>
-  </si>
-  <si>
-    <t>char_yaojiguairen</t>
-  </si>
-  <si>
-    <t>食人花</t>
-  </si>
-  <si>
-    <t>char_shirenhua</t>
-  </si>
-  <si>
-    <t>融合BOSS</t>
-  </si>
-  <si>
-    <t>320401|320402</t>
-  </si>
-  <si>
-    <t>char_rongheguai</t>
-  </si>
-  <si>
-    <t>机械射手</t>
-  </si>
-  <si>
-    <t>298101|298102</t>
-  </si>
-  <si>
-    <t>char_wuliansheshou</t>
-  </si>
-  <si>
-    <t>机械战士</t>
-  </si>
-  <si>
-    <t>298201|298202</t>
-  </si>
-  <si>
-    <t>char_jixiezhanshi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>机械肉盾</t>
-  </si>
-  <si>
-    <t>298301|298302</t>
-  </si>
-  <si>
-    <t>char_wulianroudun</t>
-  </si>
-  <si>
-    <t>机械女护士</t>
-  </si>
-  <si>
-    <t>298401|298402</t>
-  </si>
-  <si>
-    <t>char_wuliannvhushi</t>
-  </si>
-  <si>
-    <t>机械犬</t>
-  </si>
-  <si>
-    <t>298501|298502</t>
-  </si>
-  <si>
-    <t>char_wulianquan</t>
-  </si>
-  <si>
-    <t>无脸射手</t>
-  </si>
-  <si>
-    <t>299101|299102</t>
-  </si>
-  <si>
-    <t>无脸战士</t>
-  </si>
-  <si>
-    <t>299201|299202</t>
-  </si>
-  <si>
-    <t>char_wulianzhanshi</t>
-  </si>
-  <si>
-    <t>无脸肉盾</t>
-  </si>
-  <si>
-    <t>299301|299302</t>
-  </si>
-  <si>
-    <t>无脸女护士</t>
-  </si>
-  <si>
-    <t>299401|299402</t>
-  </si>
-  <si>
-    <t>无脸犬</t>
-  </si>
-  <si>
-    <t>299501|299502</t>
-  </si>
-  <si>
-    <t>电视娘分身</t>
-  </si>
-  <si>
-    <t>199101|199102</t>
-  </si>
-  <si>
-    <t>吃豆人气球</t>
-  </si>
-  <si>
-    <t>199201|199202</t>
-  </si>
-  <si>
-    <t>char_chidourenqiqiu</t>
-  </si>
-  <si>
-    <t>STS科研人员</t>
-  </si>
-  <si>
-    <t>120601|120602|120603</t>
-  </si>
-  <si>
-    <t>char_STSkeyanrenyuan</t>
-  </si>
-  <si>
-    <t>STS安保人员</t>
-  </si>
-  <si>
-    <t>120701|120702</t>
-  </si>
-  <si>
-    <t>char_STSanbaorenyuan</t>
-  </si>
-  <si>
-    <t>音姬</t>
-  </si>
-  <si>
-    <t>char_123</t>
-  </si>
-  <si>
-    <t>盒中少女</t>
-  </si>
-  <si>
-    <t>400201|400202</t>
-  </si>
-  <si>
-    <t>char_114</t>
-  </si>
-  <si>
-    <t>幻臂</t>
-  </si>
-  <si>
-    <t>400301|400302</t>
-  </si>
-  <si>
-    <t>char_104</t>
-  </si>
-  <si>
-    <t>幻臂变身</t>
-  </si>
-  <si>
-    <t>char_104ex</t>
-  </si>
-  <si>
-    <t>植物少女</t>
-  </si>
-  <si>
-    <t>91401|91402</t>
-  </si>
-  <si>
-    <t>char_112</t>
-  </si>
-  <si>
-    <t>早餐精灵</t>
-  </si>
-  <si>
-    <t>char_122</t>
-  </si>
-  <si>
-    <t>偏色参数</t>
-  </si>
-  <si>
-    <t>dyeParam</t>
-  </si>
-  <si>
-    <t>无变化</t>
-  </si>
-  <si>
-    <t>0.82|0.16|0.62|1</t>
-  </si>
-  <si>
-    <t>紫色</t>
-  </si>
-  <si>
-    <t>红色</t>
-  </si>
-  <si>
-    <t>绿色</t>
-  </si>
-  <si>
-    <t>黄色</t>
-  </si>
-  <si>
-    <t>蓝色</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物BOSS-反伤肉盾</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物BOSS-雷达娘</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物BOSS-涂鸦爆弹</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物BOSS-路障</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物BOSS-迷醉金钞</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物BOSS-细胞娘</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械射手boss</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械战士boss</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械肉盾boss</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械刺客boss</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>致命拥抱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_zhimingyongbao</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>弥芮斯</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_miruisi</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_zhimingyongbao</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物BOSS-致命拥抱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>12801|12802|12803|12804</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1141,6 +1237,7 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1148,176 +1245,51 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1344,234 +1316,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399578844569231"/>
+        <fgColor theme="3" tint="0.39954832605975527"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799890133365886"/>
+        <fgColor theme="3" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799920651875362"/>
+        <fgColor theme="3" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149876400036622"/>
+        <fgColor theme="0" tint="-0.1498458815271462"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149784844508194"/>
+        <fgColor theme="0" tint="-0.14975432599871821"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1594,283 +1392,41 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1879,27 +1435,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1918,9 +1477,21 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1939,7 +1510,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
@@ -1966,64 +1540,41 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2072,7 +1623,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2107,7 +1658,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2310,21 +1861,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I124"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
@@ -2341,7 +1891,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2367,7 +1917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -2393,7 +1943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
@@ -2419,7 +1969,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>11</v>
       </c>
@@ -2436,7 +1986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>12</v>
       </c>
@@ -2453,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>13</v>
       </c>
@@ -2470,7 +2020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>14</v>
       </c>
@@ -2487,7 +2037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>15</v>
       </c>
@@ -2504,14 +2054,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>16</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2521,14 +2071,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1014</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="17">
         <v>140101</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2538,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>908</v>
       </c>
@@ -2555,7 +2105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>909</v>
       </c>
@@ -2572,11 +2122,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>910</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -2589,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>911</v>
       </c>
@@ -2606,7 +2156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>912</v>
       </c>
@@ -2623,7 +2173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>913</v>
       </c>
@@ -2640,65 +2190,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>91</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="19" t="s">
         <v>56</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>92</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="19" t="s">
         <v>59</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>93</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="19" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="18">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="19">
         <v>901</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="20" t="s">
         <v>64</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2708,14 +2258,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="18">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="19">
         <v>902</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="20" t="s">
         <v>67</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -2725,65 +2275,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="18">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="19">
         <v>903</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="19" t="s">
         <v>71</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="18">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="19">
         <v>904</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="18">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="19">
         <v>905</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="19" t="s">
         <v>77</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="18">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="19">
         <v>906</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="20" t="s">
         <v>79</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -2793,14 +2343,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" s="12" customFormat="1" spans="1:5">
+    <row r="26" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="12">
         <v>101</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="21" t="s">
         <v>81</v>
       </c>
       <c r="D26" s="12" t="s">
@@ -2810,14 +2360,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" s="12" customFormat="1" spans="1:5">
+    <row r="27" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="12">
         <v>991</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D27" s="12" t="s">
@@ -2827,14 +2377,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" s="12" customFormat="1" spans="1:5">
+    <row r="28" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="12">
         <v>102</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="21" t="s">
         <v>86</v>
       </c>
       <c r="D28" s="12" t="s">
@@ -2844,14 +2394,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" s="12" customFormat="1" spans="1:5">
+    <row r="29" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="12">
         <v>103</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D29" s="12" t="s">
@@ -2861,14 +2411,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" s="12" customFormat="1" spans="1:5">
+    <row r="30" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="12">
         <v>104</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="21" t="s">
         <v>91</v>
       </c>
       <c r="D30" s="12" t="s">
@@ -2878,14 +2428,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" s="12" customFormat="1" spans="1:5">
+    <row r="31" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="12">
         <v>994</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="21" t="s">
         <v>94</v>
       </c>
       <c r="D31" s="12" t="s">
@@ -2895,14 +2445,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" s="12" customFormat="1" spans="1:5">
-      <c r="A32" s="21">
+    <row r="32" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="22">
         <v>105</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D32" s="12" t="s">
@@ -2912,14 +2462,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" s="12" customFormat="1" spans="1:5">
+    <row r="33" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="12">
         <v>106</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D33" s="12" t="s">
@@ -2929,14 +2479,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" s="12" customFormat="1" spans="1:5">
+    <row r="34" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="12">
         <v>996</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D34" s="12" t="s">
@@ -2946,14 +2496,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" s="12" customFormat="1" spans="1:5">
+    <row r="35" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="12">
         <v>997</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D35" s="12" t="s">
@@ -2963,14 +2513,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" s="12" customFormat="1" spans="1:5">
+    <row r="36" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="12">
         <v>107</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D36" s="12" t="s">
@@ -2980,14 +2530,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" s="12" customFormat="1" spans="1:5">
+    <row r="37" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="12">
         <v>108</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="21" t="s">
         <v>110</v>
       </c>
       <c r="D37" s="12" t="s">
@@ -2997,14 +2547,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" s="12" customFormat="1" spans="1:5">
+    <row r="38" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="12">
         <v>109</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="21" t="s">
         <v>113</v>
       </c>
       <c r="D38" s="12" t="s">
@@ -3014,14 +2564,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" s="12" customFormat="1" spans="1:5">
+    <row r="39" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="12">
         <v>110</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="21" t="s">
         <v>116</v>
       </c>
       <c r="D39" s="12" t="s">
@@ -3031,48 +2581,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" s="12" customFormat="1" spans="1:5">
+    <row r="40" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="12">
         <v>9991</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="25" t="s">
         <v>120</v>
       </c>
       <c r="E40" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="41" s="12" customFormat="1" spans="1:5">
+    <row r="41" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="12">
         <v>9992</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="26" t="s">
         <v>123</v>
       </c>
       <c r="E41" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="42" s="12" customFormat="1" spans="1:5">
-      <c r="A42" s="21">
+    <row r="42" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="22">
         <v>111</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="21" t="s">
         <v>125</v>
       </c>
       <c r="D42" s="12" t="s">
@@ -3082,14 +2632,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" s="12" customFormat="1" spans="1:5">
+    <row r="43" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="12">
         <v>112</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="21" t="s">
         <v>128</v>
       </c>
       <c r="D43" s="12" t="s">
@@ -3099,48 +2649,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" s="12" customFormat="1" spans="1:5">
+    <row r="44" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="12">
         <v>113</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="24" t="s">
         <v>132</v>
       </c>
       <c r="E44" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="45" s="12" customFormat="1" spans="1:5">
+    <row r="45" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="12">
         <v>114</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="24" t="s">
         <v>135</v>
       </c>
       <c r="E45" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="46" s="12" customFormat="1" spans="1:5">
+    <row r="46" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="12">
         <v>115</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="21" t="s">
         <v>137</v>
       </c>
       <c r="D46" s="12" t="s">
@@ -3150,14 +2700,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" s="12" customFormat="1" spans="1:5">
-      <c r="A47" s="21">
+    <row r="47" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="22">
         <v>116</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="21" t="s">
         <v>140</v>
       </c>
       <c r="D47" s="12" t="s">
@@ -3167,14 +2717,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" s="12" customFormat="1" spans="1:5">
+    <row r="48" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="12">
         <v>117</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="21" t="s">
         <v>143</v>
       </c>
       <c r="D48" s="12" t="s">
@@ -3184,14 +2734,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" s="12" customFormat="1" spans="1:5">
+    <row r="49" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="12">
         <v>118</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="21" t="s">
         <v>146</v>
       </c>
       <c r="D49" s="12" t="s">
@@ -3201,14 +2751,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" s="12" customFormat="1" spans="1:5">
+    <row r="50" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="12">
         <v>119</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="21" t="s">
         <v>149</v>
       </c>
       <c r="D50" s="12" t="s">
@@ -3218,14 +2768,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" s="12" customFormat="1" spans="1:5">
+    <row r="51" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="12">
         <v>120</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="21" t="s">
         <v>152</v>
       </c>
       <c r="D51" s="12" t="s">
@@ -3235,14 +2785,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" s="12" customFormat="1" spans="1:5">
-      <c r="A52" s="21">
+    <row r="52" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="22">
         <v>121</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="21" t="s">
         <v>155</v>
       </c>
       <c r="D52" s="12" t="s">
@@ -3252,14 +2802,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" s="12" customFormat="1" spans="1:5">
+    <row r="53" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="12">
         <v>122</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="21" t="s">
         <v>158</v>
       </c>
       <c r="D53" s="12" t="s">
@@ -3269,83 +2819,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" s="12" customFormat="1" spans="1:5">
-      <c r="A54" s="21">
+    <row r="54" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="22">
         <v>123</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="C54" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="D54" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="E54" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="22">
+        <v>124</v>
+      </c>
+      <c r="B55" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D54" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E54" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" s="12" customFormat="1" spans="1:5">
-      <c r="A55" s="21">
-        <v>124</v>
-      </c>
-      <c r="B55" s="22" t="s">
+      <c r="C55" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="D55" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D55" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="E55" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="56" s="12" customFormat="1" spans="1:5">
+    <row r="56" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="12">
         <v>125</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="D56" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="D56" s="12" t="s">
-        <v>166</v>
-      </c>
       <c r="E56" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="57" s="12" customFormat="1" spans="1:5">
+    <row r="57" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="12">
         <v>126</v>
       </c>
-      <c r="B57" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>98</v>
+      <c r="B57" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>330</v>
       </c>
       <c r="E57" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="58" s="12" customFormat="1" spans="1:5">
+    <row r="58" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="12">
         <v>127</v>
       </c>
-      <c r="B58" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>170</v>
+      <c r="B58" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>168</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>98</v>
@@ -3354,32 +2904,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" s="12" customFormat="1" spans="1:5">
+    <row r="59" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="12">
         <v>128</v>
       </c>
-      <c r="B59" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>172</v>
+      <c r="B59" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>333</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E59" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="60" s="13" customFormat="1" spans="1:5">
+    <row r="60" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="13">
         <v>1101</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>172</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>65</v>
@@ -3388,15 +2938,15 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="61" s="13" customFormat="1" spans="1:5">
+    <row r="61" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="13">
         <v>1102</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>177</v>
+        <v>173</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>174</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>68</v>
@@ -3405,15 +2955,15 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="62" s="13" customFormat="1" spans="1:5">
+    <row r="62" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="13">
         <v>1103</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>179</v>
+        <v>175</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>176</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>89</v>
@@ -3422,15 +2972,15 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="63" s="13" customFormat="1" spans="1:5">
+    <row r="63" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="13">
         <v>1104</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>178</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>92</v>
@@ -3439,14 +2989,14 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="64" s="14" customFormat="1" spans="1:5">
+    <row r="64" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="14">
         <v>9994</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="30" t="s">
         <v>94</v>
       </c>
       <c r="D64" s="14" t="s">
@@ -3456,15 +3006,15 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="65" s="13" customFormat="1" spans="1:5">
-      <c r="A65" s="26">
+    <row r="65" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="31">
         <v>1105</v>
       </c>
-      <c r="B65" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>183</v>
+      <c r="B65" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>179</v>
       </c>
       <c r="D65" s="13" t="s">
         <v>98</v>
@@ -3473,15 +3023,15 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="66" s="14" customFormat="1" spans="1:5">
+    <row r="66" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="14">
         <v>1106</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C66" s="25" t="s">
-        <v>184</v>
+      <c r="C66" s="30" t="s">
+        <v>180</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>101</v>
@@ -3490,1044 +3040,1321 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="67" s="14" customFormat="1" spans="1:5">
-      <c r="A67" s="14">
+    <row r="67" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="48">
+        <v>1107</v>
+      </c>
+      <c r="B67" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="C67" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="E67" s="48">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="14">
         <v>9996</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B68" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C67" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="D67" s="14" t="s">
+      <c r="C68" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D68" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="E67" s="13">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="68" s="14" customFormat="1" spans="1:5">
-      <c r="A68" s="14">
-        <v>9997</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>186</v>
       </c>
       <c r="E68" s="13">
         <v>1.3</v>
       </c>
     </row>
-    <row r="69" s="13" customFormat="1" spans="1:7">
-      <c r="A69" s="13">
-        <v>1109</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>114</v>
+    <row r="69" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="14">
+        <v>9997</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>182</v>
       </c>
       <c r="E69" s="13">
         <v>1.3</v>
       </c>
-      <c r="G69" s="28"/>
-    </row>
-    <row r="70" s="13" customFormat="1" spans="1:5">
+    </row>
+    <row r="70" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="13">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>190</v>
+        <v>183</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>184</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E70" s="13">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="71" s="13" customFormat="1" spans="1:5">
-      <c r="A71" s="26">
-        <v>1111</v>
-      </c>
-      <c r="B71" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>192</v>
+      <c r="G70" s="33"/>
+    </row>
+    <row r="71" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="13">
+        <v>1110</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>186</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E71" s="13">
         <v>1.3</v>
       </c>
     </row>
-    <row r="72" s="13" customFormat="1" spans="1:5">
-      <c r="A72" s="13">
-        <v>1112</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>194</v>
+    <row r="72" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="31">
+        <v>1111</v>
+      </c>
+      <c r="B72" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>188</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E72" s="13">
         <v>1.3</v>
       </c>
     </row>
-    <row r="73" s="14" customFormat="1" spans="1:5">
-      <c r="A73" s="14">
-        <v>1115</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="C73" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="D73" s="14" t="s">
-        <v>138</v>
+    <row r="73" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="13">
+        <v>1112</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="E73" s="13">
         <v>1.3</v>
       </c>
     </row>
-    <row r="74" s="14" customFormat="1" spans="1:5">
-      <c r="A74" s="29">
-        <v>1116</v>
-      </c>
-      <c r="B74" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="C74" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="D74" s="14" t="s">
-        <v>141</v>
+    <row r="74" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="13">
+        <v>1113</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="C74" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="E74" s="13">
         <v>1.3</v>
       </c>
     </row>
-    <row r="75" s="14" customFormat="1" spans="1:5">
+    <row r="75" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="14">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="C75" s="25" t="s">
-        <v>200</v>
+        <v>191</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>192</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E75" s="13">
         <v>1.3</v>
       </c>
     </row>
-    <row r="76" s="13" customFormat="1" spans="1:5">
-      <c r="A76" s="13">
-        <v>1119</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C76" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>150</v>
+    <row r="76" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="34">
+        <v>1116</v>
+      </c>
+      <c r="B76" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="E76" s="13">
         <v>1.3</v>
       </c>
     </row>
-    <row r="77" s="14" customFormat="1" spans="1:5">
-      <c r="A77" s="29">
-        <v>1121</v>
-      </c>
-      <c r="B77" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="C77" s="25" t="s">
-        <v>204</v>
+    <row r="77" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="34">
+        <v>1117</v>
+      </c>
+      <c r="B77" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>143</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="E77" s="13">
         <v>1.3</v>
       </c>
     </row>
-    <row r="78" s="14" customFormat="1" spans="1:5">
-      <c r="A78" s="29">
-        <v>1124</v>
-      </c>
-      <c r="B78" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="C78" s="25" t="s">
-        <v>162</v>
+    <row r="78" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="14">
+        <v>1118</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>195</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="E78" s="13">
         <v>1.3</v>
       </c>
     </row>
-    <row r="79" s="13" customFormat="1" spans="1:5">
+    <row r="79" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="13">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C79" s="24">
-        <v>320101</v>
+        <v>196</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>197</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="E79" s="13">
         <v>1.3</v>
       </c>
     </row>
-    <row r="80" s="13" customFormat="1" spans="1:5">
-      <c r="A80" s="13">
+    <row r="80" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="34">
+        <v>1121</v>
+      </c>
+      <c r="B80" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E80" s="13">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="34">
+        <v>1123</v>
+      </c>
+      <c r="B81" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D81" s="51" t="s">
+        <v>331</v>
+      </c>
+      <c r="E81" s="13">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="34">
+        <v>1124</v>
+      </c>
+      <c r="B82" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E82" s="13">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="34">
+        <v>1126</v>
+      </c>
+      <c r="B83" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E83" s="13">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="34">
+        <v>1127</v>
+      </c>
+      <c r="B84" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E84" s="13">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="34">
+        <v>1128</v>
+      </c>
+      <c r="B85" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E85" s="13">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="13">
+        <v>1129</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C86" s="29">
+        <v>320101</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E86" s="13">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="13">
         <v>1201</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B87" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="C87" s="29"/>
+      <c r="D87" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="E87" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="13">
+        <v>9993</v>
+      </c>
+      <c r="B88" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C88" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D88" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="E88" s="13">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" s="37">
+        <v>3091</v>
+      </c>
+      <c r="B89" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="C89" s="39">
+        <v>309101</v>
+      </c>
+      <c r="D89" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" s="37">
+        <v>3092</v>
+      </c>
+      <c r="B90" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="C90" s="39">
+        <v>309102</v>
+      </c>
+      <c r="D90" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" s="37">
+        <v>3093</v>
+      </c>
+      <c r="B91" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="C91" s="41">
+        <v>309103</v>
+      </c>
+      <c r="D91" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92" s="37">
+        <v>3094</v>
+      </c>
+      <c r="B92" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="C92" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="D92" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" s="37">
+        <v>3095</v>
+      </c>
+      <c r="B93" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="C80" s="24"/>
-      <c r="D80" s="13" t="s">
+      <c r="C93" s="41">
+        <v>309103</v>
+      </c>
+      <c r="D93" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" s="42">
+        <v>3101</v>
+      </c>
+      <c r="B94" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="E80" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="31">
-        <v>3091</v>
-      </c>
-      <c r="B81" s="32" t="s">
+      <c r="C94" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="C81" s="33">
-        <v>309101</v>
-      </c>
-      <c r="D81" s="34" t="s">
+      <c r="D94" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" s="42">
+        <v>3102</v>
+      </c>
+      <c r="B95" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="C95" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="D95" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" s="42">
+        <v>3103</v>
+      </c>
+      <c r="B96" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="C96" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="D96" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" s="42">
+        <v>3104</v>
+      </c>
+      <c r="B97" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="C97" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="D97" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="42">
+        <v>3105</v>
+      </c>
+      <c r="B98" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="C98" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="D98" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="42">
+        <v>3106</v>
+      </c>
+      <c r="B99" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="C99" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="D99" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" s="44">
+        <v>3107</v>
+      </c>
+      <c r="B100" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="C100" s="41"/>
+      <c r="D100" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" s="44">
+        <v>3108</v>
+      </c>
+      <c r="B101" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="C101" s="41"/>
+      <c r="D101" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" s="44">
+        <v>3109</v>
+      </c>
+      <c r="B102" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="C102" s="41"/>
+      <c r="D102" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" s="44">
+        <v>3110</v>
+      </c>
+      <c r="B103" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="C103" s="41"/>
+      <c r="D103" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" s="37">
+        <v>3291</v>
+      </c>
+      <c r="B104" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="C104" s="39">
+        <v>329101</v>
+      </c>
+      <c r="D104" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E81" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="31">
-        <v>3092</v>
-      </c>
-      <c r="B82" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="C82" s="33">
-        <v>309102</v>
-      </c>
-      <c r="D82" s="34" t="s">
+      <c r="E104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105" s="37">
+        <v>3292</v>
+      </c>
+      <c r="B105" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="C105" s="39">
+        <v>329102</v>
+      </c>
+      <c r="D105" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E82" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="31">
-        <v>3093</v>
-      </c>
-      <c r="B83" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="C83" s="35">
-        <v>309103</v>
-      </c>
-      <c r="D83" s="34" t="s">
+      <c r="E105" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" s="37">
+        <v>3293</v>
+      </c>
+      <c r="B106" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="C106" s="41">
+        <v>329101</v>
+      </c>
+      <c r="D106" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E83" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="31">
-        <v>3094</v>
-      </c>
-      <c r="B84" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="C84" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="D84" s="34" t="s">
+      <c r="E106" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107" s="37">
+        <v>3294</v>
+      </c>
+      <c r="B107" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="C107" s="41">
+        <v>329103</v>
+      </c>
+      <c r="D107" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E84" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="31">
-        <v>3095</v>
-      </c>
-      <c r="B85" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="C85" s="35">
-        <v>309003</v>
-      </c>
-      <c r="D85" s="34" t="s">
+      <c r="E107" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108" s="37">
+        <v>3295</v>
+      </c>
+      <c r="B108" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="C108" s="41">
+        <v>329103</v>
+      </c>
+      <c r="D108" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E85" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="36">
-        <v>3101</v>
-      </c>
-      <c r="B86" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="C86" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="D86" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="E86" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="36">
-        <v>3102</v>
-      </c>
-      <c r="B87" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="C87" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="D87" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="E87" s="1">
-        <v>1</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="36">
-        <v>3103</v>
-      </c>
-      <c r="B88" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="C88" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="D88" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="E88" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="36">
-        <v>3104</v>
-      </c>
-      <c r="B89" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="C89" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="D89" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="E89" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="36">
-        <v>3105</v>
-      </c>
-      <c r="B90" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="C90" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="D90" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="E90" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="36">
-        <v>3106</v>
-      </c>
-      <c r="B91" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="C91" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="D91" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="E91" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="38">
-        <v>3107</v>
-      </c>
-      <c r="B92" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="C92" s="35"/>
-      <c r="D92" s="1" t="s">
+      <c r="E108" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A109" s="44">
+        <v>3201</v>
+      </c>
+      <c r="B109" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="E92" s="1">
-        <v>1</v>
-      </c>
-      <c r="F92" s="1" t="s">
+      <c r="C109" s="41">
+        <v>320101</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110" s="44">
+        <v>3202</v>
+      </c>
+      <c r="B110" s="44" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="38">
-        <v>3108</v>
-      </c>
-      <c r="B93" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="C93" s="35"/>
-      <c r="D93" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E93" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="38">
-        <v>3109</v>
-      </c>
-      <c r="B94" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="C94" s="35"/>
-      <c r="D94" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E94" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="38">
-        <v>3110</v>
-      </c>
-      <c r="B95" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="C95" s="35"/>
-      <c r="D95" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E95" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="31">
-        <v>3291</v>
-      </c>
-      <c r="B96" s="32" t="s">
+      <c r="C110" s="41">
+        <v>320201</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C96" s="33">
-        <v>329101</v>
-      </c>
-      <c r="D96" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E96" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="31">
-        <v>3292</v>
-      </c>
-      <c r="B97" s="32" t="s">
+      <c r="E110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111" s="44">
+        <v>3203</v>
+      </c>
+      <c r="B111" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="C97" s="33">
-        <v>329102</v>
-      </c>
-      <c r="D97" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E97" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="31">
-        <v>3293</v>
-      </c>
-      <c r="B98" s="32" t="s">
+      <c r="C111" s="41">
+        <v>320301</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C98" s="35">
-        <v>329101</v>
-      </c>
-      <c r="D98" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E98" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="31">
-        <v>3294</v>
-      </c>
-      <c r="B99" s="32" t="s">
+      <c r="E111" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112" s="44">
+        <v>3204</v>
+      </c>
+      <c r="B112" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="C99" s="35">
-        <v>329103</v>
-      </c>
-      <c r="D99" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E99" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="31">
-        <v>3295</v>
-      </c>
-      <c r="B100" s="32" t="s">
+      <c r="C112" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="C100" s="35">
-        <v>329103</v>
-      </c>
-      <c r="D100" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E100" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="38">
-        <v>3201</v>
-      </c>
-      <c r="B101" s="38" t="s">
+      <c r="D112" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C101" s="35">
-        <v>320101</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E101" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="38">
-        <v>3202</v>
-      </c>
-      <c r="B102" s="38" t="s">
+      <c r="E112" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A113" s="1">
+        <v>2981</v>
+      </c>
+      <c r="B113" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="C102" s="35">
-        <v>320201</v>
-      </c>
-      <c r="D102" s="1" t="s">
+      <c r="C113" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="E102" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="38">
-        <v>3203</v>
-      </c>
-      <c r="B103" s="38" t="s">
+      <c r="D113" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="E113" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A114" s="1">
+        <v>2982</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E114" s="1">
+        <v>1</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A115" s="1">
+        <v>2983</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A116" s="1">
+        <v>2984</v>
+      </c>
+      <c r="B116" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E116" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A117" s="1">
+        <v>2985</v>
+      </c>
+      <c r="B117" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D117" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="E117" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A118" s="1">
+        <v>2986</v>
+      </c>
+      <c r="B118" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D118" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="E118" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A119" s="1">
+        <v>2987</v>
+      </c>
+      <c r="B119" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E119" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A120" s="1">
+        <v>2988</v>
+      </c>
+      <c r="B120" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E120" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A121" s="1">
+        <v>2989</v>
+      </c>
+      <c r="B121" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D121" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="E121" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A122" s="1">
+        <v>2991</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D122" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="C103" s="35">
-        <v>320301</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E103" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="38">
-        <v>3204</v>
-      </c>
-      <c r="B104" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="C104" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="D104" s="1" t="s">
+      <c r="E122" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A123" s="1">
+        <v>2992</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1</v>
+      </c>
+      <c r="G123" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E104" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="1">
-        <v>2981</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="D105" s="18" t="s">
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A124" s="1">
+        <v>2993</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E105" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="1">
-        <v>2982</v>
-      </c>
-      <c r="B106" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="C106" s="10" t="s">
+      <c r="E124" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A125" s="1">
+        <v>2994</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E106" s="1">
-        <v>1</v>
-      </c>
-      <c r="G106" s="1" t="s">
+      <c r="E125" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A126" s="1">
+        <v>2995</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D126" s="19" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="1">
-        <v>2983</v>
-      </c>
-      <c r="B107" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="C107" s="10" t="s">
+      <c r="E126" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A127" s="1">
+        <v>2996</v>
+      </c>
+      <c r="B127" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="C127" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E107" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="1">
-        <v>2984</v>
-      </c>
-      <c r="B108" s="15" t="s">
+      <c r="D127" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="E127" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A128" s="1">
+        <v>2997</v>
+      </c>
+      <c r="B128" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="C128" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="D128" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E108" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="1">
-        <v>2985</v>
-      </c>
-      <c r="B109" s="15" t="s">
+      <c r="E128" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A129" s="1">
+        <v>2998</v>
+      </c>
+      <c r="B129" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="C129" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="C109" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="D109" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="E109" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="1">
-        <v>2991</v>
-      </c>
-      <c r="B110" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="C110" s="10" t="s">
+      <c r="D129" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E129" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A130" s="1">
+        <v>2999</v>
+      </c>
+      <c r="B130" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="C130" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="D110" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="E110" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="1">
-        <v>2992</v>
-      </c>
-      <c r="B111" s="15" t="s">
+      <c r="D130" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="E130" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A131" s="1">
+        <v>1991</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C131" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D131" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1</v>
+      </c>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A132" s="1">
+        <v>1992</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E111" s="1">
-        <v>1</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="1">
-        <v>2993</v>
-      </c>
-      <c r="B112" s="15" t="s">
+      <c r="C132" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="D132" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E112" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="1">
-        <v>2994</v>
-      </c>
-      <c r="B113" s="15" t="s">
+      <c r="E132" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A133" s="19">
+        <v>1206</v>
+      </c>
+      <c r="B133" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C133" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E113" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="1">
-        <v>2995</v>
-      </c>
-      <c r="B114" s="15" t="s">
+      <c r="D133" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="E133" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A134" s="19">
+        <v>1207</v>
+      </c>
+      <c r="B134" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="D114" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="E114" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="1">
-        <v>1991</v>
-      </c>
-      <c r="B115" s="1" t="s">
+      <c r="C134" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="C115" s="16" t="s">
+      <c r="D134" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D115" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="E115" s="1">
-        <v>1</v>
-      </c>
-      <c r="F115" s="12"/>
-      <c r="G115" s="12"/>
-      <c r="H115" s="12"/>
-      <c r="I115" s="12"/>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="1">
-        <v>1992</v>
-      </c>
-      <c r="B116" s="1" t="s">
+      <c r="E134" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="15">
+        <v>4001</v>
+      </c>
+      <c r="B135" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="C116" s="16" t="s">
+      <c r="C135" s="17">
+        <v>400101</v>
+      </c>
+      <c r="D135" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="D116" s="34" t="s">
+      <c r="E135" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="15">
+        <v>4002</v>
+      </c>
+      <c r="B136" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="E116" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="18">
-        <v>1206</v>
-      </c>
-      <c r="B117" s="18" t="s">
+      <c r="C136" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="C117" s="16" t="s">
+      <c r="D136" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="E136" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A137" s="1">
+        <v>4003</v>
+      </c>
+      <c r="B137" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="E117" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="18">
-        <v>1207</v>
-      </c>
-      <c r="B118" s="18" t="s">
+      <c r="C137" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="C118" s="16" t="s">
+      <c r="D137" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="E137" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A138" s="1">
+        <v>4091</v>
+      </c>
+      <c r="B138" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="E118" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" s="15" customFormat="1" spans="1:5">
-      <c r="A119" s="15">
-        <v>4001</v>
-      </c>
-      <c r="B119" s="15" t="s">
+      <c r="C138" s="17">
+        <v>409101</v>
+      </c>
+      <c r="D138" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C119" s="10">
-        <v>400101</v>
-      </c>
-      <c r="D119" s="15" t="s">
+      <c r="E138" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="15">
+        <v>4004</v>
+      </c>
+      <c r="B139" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="E119" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" s="15" customFormat="1" spans="1:5">
-      <c r="A120" s="15">
-        <v>4002</v>
-      </c>
-      <c r="B120" s="15" t="s">
+      <c r="C139" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="C120" s="10" t="s">
+      <c r="D139" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="D120" s="15" t="s">
+      <c r="E139" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="15">
+        <v>4005</v>
+      </c>
+      <c r="B140" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="E120" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="1">
-        <v>4003</v>
-      </c>
-      <c r="B121" s="15" t="s">
+      <c r="C140" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D140" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="C121" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="D121" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E121" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="1">
-        <v>4091</v>
-      </c>
-      <c r="B122" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="C122" s="10">
-        <v>409101</v>
-      </c>
-      <c r="D122" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="E122" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" s="15" customFormat="1" spans="1:5">
-      <c r="A123" s="15">
-        <v>4004</v>
-      </c>
-      <c r="B123" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="D123" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="E123" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" s="15" customFormat="1" spans="1:5">
-      <c r="A124" s="15">
-        <v>4005</v>
-      </c>
-      <c r="B124" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="D124" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="E124" s="1">
+      <c r="E140" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:3">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:3">
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
@@ -4538,70 +4365,70 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>0</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>2</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>3</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>4</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>5</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>